--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1802,28 +1802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.65192564388391</v>
+        <v>107.9578755252194</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.4562551284154</v>
+        <v>147.7127280588713</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.532710779352</v>
+        <v>133.6152326090887</v>
       </c>
       <c r="AD2" t="n">
-        <v>83651.92564388391</v>
+        <v>107957.8755252194</v>
       </c>
       <c r="AE2" t="n">
-        <v>114456.2551284154</v>
+        <v>147712.7280588713</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.406693151105955e-06</v>
+        <v>6.303274250969142e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.459635416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>103532.710779352</v>
+        <v>133615.2326090886</v>
       </c>
     </row>
     <row r="3">
@@ -1908,28 +1908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.41454383250097</v>
+        <v>88.80574505985699</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.13482064070674</v>
+        <v>121.5079382238119</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.72335705677652</v>
+        <v>109.9113911372254</v>
       </c>
       <c r="AD3" t="n">
-        <v>64414.54383250097</v>
+        <v>88805.74505985698</v>
       </c>
       <c r="AE3" t="n">
-        <v>88134.82064070673</v>
+        <v>121507.9382238119</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.070198868908886e-06</v>
+        <v>7.530933544275404e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.73046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>79723.35705677653</v>
+        <v>109911.3911372254</v>
       </c>
     </row>
     <row r="4">
@@ -2014,28 +2014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.27586723562458</v>
+        <v>86.66706846298059</v>
       </c>
       <c r="AB4" t="n">
-        <v>85.20858896910946</v>
+        <v>118.5817065522146</v>
       </c>
       <c r="AC4" t="n">
-        <v>77.07640082892362</v>
+        <v>107.2644349093725</v>
       </c>
       <c r="AD4" t="n">
-        <v>62275.86723562458</v>
+        <v>86667.06846298059</v>
       </c>
       <c r="AE4" t="n">
-        <v>85208.58896910946</v>
+        <v>118581.7065522146</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.270212254395881e-06</v>
+        <v>7.901010673816715e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.561197916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>77076.40082892362</v>
+        <v>107264.4349093725</v>
       </c>
     </row>
   </sheetData>
@@ -2311,28 +2311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.43904626887841</v>
+        <v>86.96647053431255</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.80010183824382</v>
+        <v>118.991361674898</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.51602194353063</v>
+        <v>107.6349931221017</v>
       </c>
       <c r="AD2" t="n">
-        <v>63439.04626887841</v>
+        <v>86966.47053431255</v>
       </c>
       <c r="AE2" t="n">
-        <v>86800.10183824382</v>
+        <v>118991.361674898</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.01956525520366e-06</v>
+        <v>7.661911725565447e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.912760416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>78516.02194353064</v>
+        <v>107634.9931221017</v>
       </c>
     </row>
     <row r="3">
@@ -2417,28 +2417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.19932908639308</v>
+        <v>82.55616115123503</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.99913374604904</v>
+        <v>112.9569818078563</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.26869010434325</v>
+        <v>102.1765260002633</v>
       </c>
       <c r="AD3" t="n">
-        <v>59199.32908639308</v>
+        <v>82556.16115123504</v>
       </c>
       <c r="AE3" t="n">
-        <v>80999.13374604905</v>
+        <v>112956.9818078563</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.53431957206375e-06</v>
+        <v>8.6431128967692e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.470052083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>73268.69010434324</v>
+        <v>102176.5260002633</v>
       </c>
     </row>
     <row r="4">
@@ -2523,28 +2523,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.95760999624708</v>
+        <v>82.31444206108903</v>
       </c>
       <c r="AB4" t="n">
-        <v>80.6684030230178</v>
+        <v>112.6262510848251</v>
       </c>
       <c r="AC4" t="n">
-        <v>72.96952385733451</v>
+        <v>101.8773597532545</v>
       </c>
       <c r="AD4" t="n">
-        <v>58957.60999624708</v>
+        <v>82314.44206108902</v>
       </c>
       <c r="AE4" t="n">
-        <v>80668.4030230178</v>
+        <v>112626.2510848251</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.590339368250794e-06</v>
+        <v>8.749895273971223e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.424479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>72969.52385733451</v>
+        <v>101877.3597532545</v>
       </c>
     </row>
   </sheetData>
@@ -2820,28 +2820,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.20274792838916</v>
+        <v>71.95904071017844</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.05785862141114</v>
+        <v>98.45753410845147</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.37163492142121</v>
+        <v>89.06088523918231</v>
       </c>
       <c r="AD2" t="n">
-        <v>51202.74792838916</v>
+        <v>71959.04071017844</v>
       </c>
       <c r="AE2" t="n">
-        <v>70057.85862141114</v>
+        <v>98457.53410845147</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.215807146921157e-06</v>
+        <v>1.110830423090714e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.365885416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>63371.63492142121</v>
+        <v>89060.88523918232</v>
       </c>
     </row>
   </sheetData>
@@ -3117,28 +3117,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.07707237367211</v>
+        <v>75.85007226548029</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.99063613369029</v>
+        <v>103.7814151426099</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.9290736676176</v>
+        <v>93.87666253955628</v>
       </c>
       <c r="AD2" t="n">
-        <v>54077.07237367211</v>
+        <v>75850.0722654803</v>
       </c>
       <c r="AE2" t="n">
-        <v>73990.63613369029</v>
+        <v>103781.4151426099</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.014052788029069e-06</v>
+        <v>1.018026067650405e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.346354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>66929.0736676176</v>
+        <v>93876.66253955627</v>
       </c>
     </row>
     <row r="3">
@@ -3223,28 +3223,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.06492095246928</v>
+        <v>75.83792084427746</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.97401002311771</v>
+        <v>103.7647890320373</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.91403432970318</v>
+        <v>93.86162320164185</v>
       </c>
       <c r="AD3" t="n">
-        <v>54064.92095246928</v>
+        <v>75837.92084427747</v>
       </c>
       <c r="AE3" t="n">
-        <v>73974.01002311772</v>
+        <v>103764.7890320373</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.018666765178359e-06</v>
+        <v>1.018962864531509e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.346354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>66914.03432970318</v>
+        <v>93861.62320164185</v>
       </c>
     </row>
   </sheetData>
@@ -3520,28 +3520,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.92447907336167</v>
+        <v>68.84686346675618</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.94063066383586</v>
+        <v>94.1993159044334</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.551910825059</v>
+        <v>85.20906540410759</v>
       </c>
       <c r="AD2" t="n">
-        <v>48924.47907336167</v>
+        <v>68846.86346675617</v>
       </c>
       <c r="AE2" t="n">
-        <v>66940.63066383587</v>
+        <v>94199.3159044334</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.321462804135256e-06</v>
+        <v>1.184985825518974e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.424479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>60551.91082505901</v>
+        <v>85209.06540410759</v>
       </c>
     </row>
   </sheetData>
@@ -3817,28 +3817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.31203724037036</v>
+        <v>100.9812465495331</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.7817401185961</v>
+        <v>138.1669965071943</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.68607930730877</v>
+        <v>124.9805322791823</v>
       </c>
       <c r="AD2" t="n">
-        <v>77312.03724037035</v>
+        <v>100981.2465495331</v>
       </c>
       <c r="AE2" t="n">
-        <v>105781.7401185961</v>
+        <v>138166.9965071943</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.84942833500138e-06</v>
+        <v>7.278359240787874e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.049479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>95686.07930730877</v>
+        <v>124980.5322791823</v>
       </c>
     </row>
     <row r="3">
@@ -3923,28 +3923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.11937286364096</v>
+        <v>83.87383351882433</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.25797823154576</v>
+        <v>114.7598792727932</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.40739223894388</v>
+        <v>103.8073574615296</v>
       </c>
       <c r="AD3" t="n">
-        <v>60119.37286364097</v>
+        <v>83873.83351882432</v>
       </c>
       <c r="AE3" t="n">
-        <v>82257.97823154577</v>
+        <v>114759.8792727932</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.44994059103507e-06</v>
+        <v>8.413785997059106e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.502604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>74407.39223894388</v>
+        <v>103807.3574615297</v>
       </c>
     </row>
     <row r="4">
@@ -4029,28 +4029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.872489684981</v>
+        <v>83.45635813957216</v>
       </c>
       <c r="AB4" t="n">
-        <v>81.92018177478624</v>
+        <v>114.1886710411868</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.10183460191706</v>
+        <v>103.2906645418518</v>
       </c>
       <c r="AD4" t="n">
-        <v>59872.489684981</v>
+        <v>83456.35813957216</v>
       </c>
       <c r="AE4" t="n">
-        <v>81920.18177478624</v>
+        <v>114188.6710411868</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.496148567380999e-06</v>
+        <v>8.501154359934569e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.463541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>74101.83460191706</v>
+        <v>103290.6645418518</v>
       </c>
     </row>
   </sheetData>
@@ -4326,28 +4326,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.62460076580908</v>
+        <v>67.05318653481416</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.1620798168597</v>
+        <v>91.74512799471012</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.94310237470589</v>
+        <v>82.98910174401317</v>
       </c>
       <c r="AD2" t="n">
-        <v>47624.60076580907</v>
+        <v>67053.18653481416</v>
       </c>
       <c r="AE2" t="n">
-        <v>65162.0798168597</v>
+        <v>91745.12799471011</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.33211004185473e-06</v>
+        <v>1.222421817961589e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.49609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>58943.10237470589</v>
+        <v>82989.10174401317</v>
       </c>
     </row>
   </sheetData>
@@ -4623,28 +4623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.43304224509718</v>
+        <v>81.22362357841085</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.95066628359901</v>
+        <v>111.1337451133105</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.32028690497577</v>
+        <v>100.5272964569155</v>
       </c>
       <c r="AD2" t="n">
-        <v>58433.04224509718</v>
+        <v>81223.62357841086</v>
       </c>
       <c r="AE2" t="n">
-        <v>79950.666283599</v>
+        <v>111133.7451133105</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.517856807149094e-06</v>
+        <v>8.85493690552851e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.587239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>72320.28690497577</v>
+        <v>100527.2964569155</v>
       </c>
     </row>
     <row r="3">
@@ -4729,28 +4729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.67118509293474</v>
+        <v>79.29117422565623</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.54001560035977</v>
+        <v>108.4896826552244</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.13970533957463</v>
+        <v>98.13557960886335</v>
       </c>
       <c r="AD3" t="n">
-        <v>56671.18509293474</v>
+        <v>79291.17422565623</v>
       </c>
       <c r="AE3" t="n">
-        <v>77540.01560035977</v>
+        <v>108489.6826552244</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.777412529508297e-06</v>
+        <v>9.363662534309548e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.391927083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>70139.70533957463</v>
+        <v>98135.57960886335</v>
       </c>
     </row>
   </sheetData>
@@ -5026,28 +5026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.88859257959749</v>
+        <v>85.18034711160632</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.67870269938146</v>
+        <v>116.5475088097484</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.59708616107824</v>
+        <v>105.4243781444322</v>
       </c>
       <c r="AD2" t="n">
-        <v>61888.59257959749</v>
+        <v>85180.34711160633</v>
       </c>
       <c r="AE2" t="n">
-        <v>84678.70269938147</v>
+        <v>116547.5088097484</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.160878802579849e-06</v>
+        <v>8.000134494377549e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.815104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>76597.08616107824</v>
+        <v>105424.3781444322</v>
       </c>
     </row>
     <row r="3">
@@ -5132,28 +5132,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.37056001809414</v>
+        <v>81.49172234951078</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.86517534409219</v>
+        <v>111.5005696796123</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.24295510074816</v>
+        <v>100.8591118014511</v>
       </c>
       <c r="AD3" t="n">
-        <v>58370.56001809414</v>
+        <v>81491.72234951078</v>
       </c>
       <c r="AE3" t="n">
-        <v>79865.17534409219</v>
+        <v>111500.5696796123</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.623921818765293e-06</v>
+        <v>8.890428728342971e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.430989583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>72242.95510074816</v>
+        <v>100859.1118014511</v>
       </c>
     </row>
   </sheetData>
@@ -5429,28 +5429,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.08754585572187</v>
+        <v>105.1880053884401</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.9475575698021</v>
+        <v>143.9228695396856</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.3588783912437</v>
+        <v>130.187072867873</v>
       </c>
       <c r="AD2" t="n">
-        <v>81087.54585572187</v>
+        <v>105188.0053884401</v>
       </c>
       <c r="AE2" t="n">
-        <v>110947.5575698021</v>
+        <v>143922.8695396856</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.573142153490227e-06</v>
+        <v>6.656492821896664e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.283854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>100358.8783912437</v>
+        <v>130187.072867873</v>
       </c>
     </row>
     <row r="3">
@@ -5535,28 +5535,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.92077487126674</v>
+        <v>87.10648575000549</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.09098004751152</v>
+        <v>119.1829366700443</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.87457774124692</v>
+        <v>107.8082844685885</v>
       </c>
       <c r="AD3" t="n">
-        <v>62920.77487126674</v>
+        <v>87106.48575000549</v>
       </c>
       <c r="AE3" t="n">
-        <v>86090.98004751152</v>
+        <v>119182.9366700443</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.206871560828616e-06</v>
+        <v>7.837082641658604e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.639322916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>77874.57774124692</v>
+        <v>107808.2844685885</v>
       </c>
     </row>
     <row r="4">
@@ -5641,28 +5641,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.52809592676901</v>
+        <v>85.71380680550777</v>
       </c>
       <c r="AB4" t="n">
-        <v>84.18545527499192</v>
+        <v>117.2774118975247</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.15091357859518</v>
+        <v>106.0846203059368</v>
       </c>
       <c r="AD4" t="n">
-        <v>61528.09592676901</v>
+        <v>85713.80680550777</v>
       </c>
       <c r="AE4" t="n">
-        <v>84185.45527499192</v>
+        <v>117277.4118975247</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.349004820517914e-06</v>
+        <v>8.101866124160253e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.522135416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>76150.91357859518</v>
+        <v>106084.6203059368</v>
       </c>
     </row>
   </sheetData>
@@ -5938,28 +5938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.97050056635498</v>
+        <v>78.04087534398056</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.58130811907415</v>
+        <v>106.7789685660229</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.2724955547482</v>
+        <v>96.58813367133241</v>
       </c>
       <c r="AD2" t="n">
-        <v>55970.50056635498</v>
+        <v>78040.87534398056</v>
       </c>
       <c r="AE2" t="n">
-        <v>76581.30811907415</v>
+        <v>106778.9685660229</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.76439259942367e-06</v>
+        <v>9.550212363556517e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.4765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>69272.49555474821</v>
+        <v>96588.13367133241</v>
       </c>
     </row>
     <row r="3">
@@ -6044,28 +6044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.13245768924263</v>
+        <v>77.20283246686822</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.43466088276722</v>
+        <v>105.632321329716</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.23528272134455</v>
+        <v>95.55092083792874</v>
       </c>
       <c r="AD3" t="n">
-        <v>55132.45768924263</v>
+        <v>77202.83246686822</v>
       </c>
       <c r="AE3" t="n">
-        <v>75434.66088276722</v>
+        <v>105632.321329716</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.902810399355638e-06</v>
+        <v>9.827670477400133e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.37890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>68235.28272134454</v>
+        <v>95550.92083792874</v>
       </c>
     </row>
   </sheetData>
@@ -6341,28 +6341,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.03246683788027</v>
+        <v>73.15237265103188</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.19311663799118</v>
+        <v>100.090303516016</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.39854550624385</v>
+        <v>90.53782542609567</v>
       </c>
       <c r="AD2" t="n">
-        <v>52032.46683788027</v>
+        <v>73152.37265103188</v>
       </c>
       <c r="AE2" t="n">
-        <v>71193.11663799119</v>
+        <v>100090.303516016</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.196085639766463e-06</v>
+        <v>1.087053611076358e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.3203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>64398.54550624386</v>
+        <v>90537.82542609566</v>
       </c>
     </row>
   </sheetData>
@@ -10419,28 +10419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.04151591905153</v>
+        <v>70.40169412424703</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.46900975629558</v>
+        <v>96.3267038042988</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.93442356202838</v>
+        <v>87.13341838861818</v>
       </c>
       <c r="AD2" t="n">
-        <v>50041.51591905153</v>
+        <v>70401.69412424703</v>
       </c>
       <c r="AE2" t="n">
-        <v>68469.00975629558</v>
+        <v>96326.7038042988</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.300370182039795e-06</v>
+        <v>1.152224030260427e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.365885416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>61934.42356202838</v>
+        <v>87133.41838861819</v>
       </c>
     </row>
   </sheetData>
@@ -10716,28 +10716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.49631609543115</v>
+        <v>65.52107077751204</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.61831095444276</v>
+        <v>89.64881962339362</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.54666864582433</v>
+        <v>81.09286210146716</v>
       </c>
       <c r="AD2" t="n">
-        <v>46496.31609543115</v>
+        <v>65521.07077751203</v>
       </c>
       <c r="AE2" t="n">
-        <v>63618.31095444276</v>
+        <v>89648.81962339362</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.155870021896548e-06</v>
+        <v>1.22633758675012e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.717447916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>57546.66864582433</v>
+        <v>81092.86210146717</v>
       </c>
     </row>
   </sheetData>
@@ -11013,28 +11013,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.99402825902393</v>
+        <v>83.04054086133078</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.08647621369516</v>
+        <v>113.6197314965336</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.25225813297229</v>
+        <v>102.7760237888284</v>
       </c>
       <c r="AD2" t="n">
-        <v>59994.02825902394</v>
+        <v>83040.54086133078</v>
       </c>
       <c r="AE2" t="n">
-        <v>82086.47621369516</v>
+        <v>113619.7314965336</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.356729221293433e-06</v>
+        <v>8.454573728310697e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.678385416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>74252.25813297229</v>
+        <v>102776.0237888284</v>
       </c>
     </row>
     <row r="3">
@@ -11119,28 +11119,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.56975379777123</v>
+        <v>80.44567419948586</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.76947694436988</v>
+        <v>110.0693204523615</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.25182861847264</v>
+        <v>99.56445899167777</v>
       </c>
       <c r="AD3" t="n">
-        <v>57569.75379777123</v>
+        <v>80445.67419948586</v>
       </c>
       <c r="AE3" t="n">
-        <v>78769.47694436989</v>
+        <v>110069.3204523615</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.692829960587066e-06</v>
+        <v>9.106803494303392e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.41796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>71251.82861847265</v>
+        <v>99564.45899167776</v>
       </c>
     </row>
   </sheetData>
@@ -11416,28 +11416,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.05389345868583</v>
+        <v>102.9423035209139</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.165024641767</v>
+        <v>140.8502011711637</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.84190650054988</v>
+        <v>127.4076556559247</v>
       </c>
       <c r="AD2" t="n">
-        <v>79053.89345868584</v>
+        <v>102942.3035209139</v>
       </c>
       <c r="AE2" t="n">
-        <v>108165.024641767</v>
+        <v>140850.2011711637</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.723000233402098e-06</v>
+        <v>6.985808707430367e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.147135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>97841.90650054989</v>
+        <v>127407.6556559247</v>
       </c>
     </row>
     <row r="3">
@@ -11522,28 +11522,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.42469744200474</v>
+        <v>85.39835885025335</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.04398090651829</v>
+        <v>116.8458020885642</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.0229413252881</v>
+        <v>105.6942027313752</v>
       </c>
       <c r="AD3" t="n">
-        <v>61424.69744200473</v>
+        <v>85398.35885025334</v>
       </c>
       <c r="AE3" t="n">
-        <v>84043.98090651829</v>
+        <v>116845.8020885642</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.345465394039603e-06</v>
+        <v>8.153797497825878e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.5546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>76022.94132528811</v>
+        <v>105694.2027313752</v>
       </c>
     </row>
     <row r="4">
@@ -11628,28 +11628,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.53673985959126</v>
+        <v>84.33980906724767</v>
       </c>
       <c r="AB4" t="n">
-        <v>82.82903816833701</v>
+        <v>115.3974475755361</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.92395101685561</v>
+        <v>104.3840771402916</v>
       </c>
       <c r="AD4" t="n">
-        <v>60536.73985959126</v>
+        <v>84339.80906724767</v>
       </c>
       <c r="AE4" t="n">
-        <v>82829.03816833701</v>
+        <v>115397.4475755361</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.444963026622639e-06</v>
+        <v>8.34049408243289e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.4765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>74923.95101685562</v>
+        <v>104384.0771402916</v>
       </c>
     </row>
   </sheetData>
@@ -11925,28 +11925,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.34281792082578</v>
+        <v>72.57795250127174</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.35424091517187</v>
+        <v>99.30435652548606</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.2579765190772</v>
+        <v>89.82688811325814</v>
       </c>
       <c r="AD2" t="n">
-        <v>54342.81792082578</v>
+        <v>72577.95250127173</v>
       </c>
       <c r="AE2" t="n">
-        <v>74354.24091517187</v>
+        <v>99304.35652548606</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.740458898042227e-06</v>
+        <v>1.185552795279795e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.186197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>67257.9765190772</v>
+        <v>89826.88811325813</v>
       </c>
     </row>
   </sheetData>
@@ -12222,28 +12222,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.99563286890869</v>
+        <v>74.45293461700204</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.51096289352996</v>
+        <v>101.8697897745999</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.59061836476326</v>
+        <v>92.14748001368558</v>
       </c>
       <c r="AD2" t="n">
-        <v>52995.63286890869</v>
+        <v>74452.93461700204</v>
       </c>
       <c r="AE2" t="n">
-        <v>72510.96289352997</v>
+        <v>101869.7897745999</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.122281878681935e-06</v>
+        <v>1.054823034059327e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.3203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>65590.61836476326</v>
+        <v>92147.48001368558</v>
       </c>
     </row>
   </sheetData>
@@ -12519,28 +12519,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.1129421653037</v>
+        <v>79.63555682285052</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.14444711572123</v>
+        <v>108.9608821177933</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.68645075943516</v>
+        <v>98.56180845605742</v>
       </c>
       <c r="AD2" t="n">
-        <v>57112.9421653037</v>
+        <v>79635.55682285051</v>
       </c>
       <c r="AE2" t="n">
-        <v>78144.44711572124</v>
+        <v>108960.8821177933</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.648633588138058e-06</v>
+        <v>9.209799006319115e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.522135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>70686.45075943516</v>
+        <v>98561.80845605742</v>
       </c>
     </row>
     <row r="3">
@@ -12625,28 +12625,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.68980536377685</v>
+        <v>78.04182782073144</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.19724855950859</v>
+        <v>106.7802717867338</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.9250901005165</v>
+        <v>96.58931251448772</v>
       </c>
       <c r="AD3" t="n">
-        <v>55689.80536377685</v>
+        <v>78041.82782073144</v>
       </c>
       <c r="AE3" t="n">
-        <v>76197.24855950859</v>
+        <v>106780.2717867338</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.88826606499405e-06</v>
+        <v>9.684555062133372e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.352864583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>68925.09010051649</v>
+        <v>96589.31251448771</v>
       </c>
     </row>
   </sheetData>
